--- a/Unit_Test_Document.xlsx
+++ b/Unit_Test_Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\geowox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_hub\geowox-etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30259149-7E12-4A5E-A818-CF9595573D57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38B473-A27F-4556-8130-43018D0FDC1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{501924B7-D95A-4988-9425-9B70A490D0A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{501924B7-D95A-4988-9425-9B70A490D0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>load</t>
   </si>
   <si>
-    <t>Test Case Sheets</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>History data is restored in the s3 bucket in history folder with timestamp as backup to prevent data loss</t>
+  </si>
+  <si>
+    <t>Test Case Scenario</t>
   </si>
 </sst>
 </file>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27644D2B-31FB-4D74-82B6-58A7FD8DF478}">
   <dimension ref="A4:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,7 +914,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,15 +966,15 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -996,15 +996,15 @@
   <sheetData>
     <row r="5" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C37A03-4129-49F2-8D0F-4711CC405828}">
   <dimension ref="I2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1026,22 +1026,22 @@
   <sheetData>
     <row r="2" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
